--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670097.013442982</v>
+        <v>2811049.71965612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114749</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5213294.31012391</v>
+        <v>5574077.614939475</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>158.7880326425764</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,7 +667,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>271.683824034595</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>113.8532693611787</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>192.7148711957961</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>68.60526130391781</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>193.723760465999</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,10 +1068,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>65.41309383316693</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.63831218851958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>226.4351894699507</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>14.94721823158767</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1297,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>82.83364797050388</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>142.3668648089843</v>
       </c>
     </row>
     <row r="11">
@@ -1421,22 +1423,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>204.7428219542691</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,10 +1539,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>52.9226025751711</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>174.0624547605554</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439646</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.4985129184731</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.549591283488</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.8587867191415</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -2005,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>217.4687263638443</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>81.10381682709421</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249408</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,16 +2247,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>61.77851748952833</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>77.86122520429248</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.145526881227</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.408566264368526</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2491,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2722,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>108.1292563222837</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2962,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>120.0693374786934</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>45.44275720140839</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>147.947241019392</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>101.5800624936545</v>
+        <v>21.01594419556553</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.44972815730565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>260.5066977751355</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,16 +3799,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>201.9491407442906</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>336.3094351528053</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>18.79193550550065</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>34.90644412530818</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,19 +4191,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180485</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.9701437626245</v>
+        <v>456.8988997477844</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1098178163286</v>
+        <v>434.0385738014886</v>
       </c>
       <c r="D2" t="n">
-        <v>491.857601041733</v>
+        <v>414.786357026893</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>392.8498212151546</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>371.7660434449589</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884635</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>880.2445183516429</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074144</v>
+        <v>880.2445183516429</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091853</v>
+        <v>880.2445183516429</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1359.183442594073</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1361.464950229793</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1361.464950229793</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733976</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="V2" t="n">
-        <v>1366.835372891113</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="W2" t="n">
-        <v>1366.835372891113</v>
+        <v>1434.348120789365</v>
       </c>
       <c r="X2" t="n">
-        <v>955.1153740588602</v>
+        <v>1022.628121957113</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8185080541546</v>
+        <v>617.2908519120029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>693.5426250668235</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>576.0367215843282</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>472.1967630996132</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>367.4948293725504</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>273.8489990554546</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>179.7952272730586</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.4191340353682</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>126.4191340353682</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>126.4191340353682</v>
       </c>
       <c r="K3" t="n">
-        <v>602.6104029955975</v>
+        <v>126.4191340353682</v>
       </c>
       <c r="L3" t="n">
-        <v>1153.275937980036</v>
+        <v>605.358058277798</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>910.0030534259657</v>
       </c>
       <c r="N3" t="n">
-        <v>1220.501010560616</v>
+        <v>910.0030534259657</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1388.941977668396</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1388.941977668396</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.087454531175</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1853.782517177133</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1711.902581474811</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1527.134385394447</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1322.161246533714</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1125.639869366931</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>962.1625231335938</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>822.4696344868862</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.6748732344923</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>645.7023101134083</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="D4" t="n">
-        <v>482.385537240179</v>
+        <v>786.5939218222411</v>
       </c>
       <c r="E4" t="n">
-        <v>482.385537240179</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>96.19346351647559</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>322.7210647223128</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>1808.106634375116</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1820.103462230849</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="W4" t="n">
-        <v>1007.840841946558</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="X4" t="n">
-        <v>1007.840841946558</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>1007.840841946558</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>568.8670150191532</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>895.898005082137</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2155.613008721045</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="W5" t="n">
-        <v>1770.875776931517</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>990.0122453153889</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8185080541546</v>
+        <v>584.6749752702792</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654.3093365026416</v>
+        <v>1049.956911236353</v>
       </c>
       <c r="C7" t="n">
-        <v>482.3367733815576</v>
+        <v>877.9843481152689</v>
       </c>
       <c r="D7" t="n">
-        <v>482.3367733815576</v>
+        <v>714.6675752420396</v>
       </c>
       <c r="E7" t="n">
-        <v>316.1285675344111</v>
+        <v>548.4593693948931</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>376.5975951694535</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>210.3406254636856</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4723,25 +4725,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
@@ -4750,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483783</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656296</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751021008</v>
+        <v>1240.122879948419</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.4753052147073</v>
+        <v>1240.122879948419</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.988227140365</v>
+        <v>774.7291026788682</v>
       </c>
       <c r="C8" t="n">
-        <v>1354.087497153665</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.83528037907</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
         <v>79.39509630577632</v>
@@ -4805,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2209.81305222845</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.81305222845</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.81305222845</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X8" t="n">
-        <v>2202.133457436601</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y8" t="n">
-        <v>2200.836591431896</v>
+        <v>1194.577466970398</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4886,25 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.3071558651718</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C10" t="n">
-        <v>701.3071558651718</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>537.9903829919425</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>537.9903829919425</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -5005,7 +5007,7 @@
         <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.3071558651718</v>
+        <v>783.8450102269608</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.080935154279</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.18020516758</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>715.2263527642958</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>715.2263527642958</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162099</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>2922.929299445809</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>2922.929299445809</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2922.929299445809</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2922.929299445809</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2922.929299445809</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2922.929299445809</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>336.3796397763832</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>693.0265871760246</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>693.0265871760246</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1965.013845725276</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="C13" t="n">
-        <v>1793.041282604192</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="D13" t="n">
-        <v>1629.724509730963</v>
+        <v>683.9375302299842</v>
       </c>
       <c r="E13" t="n">
-        <v>1463.516303883817</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F13" t="n">
-        <v>1463.516303883817</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G13" t="n">
-        <v>1297.259334178049</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>1153.463065686203</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.694497426479</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650637</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856474</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150895</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121146</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997181</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676945</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839607</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3234.107524839607</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3180.650350521253</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>3180.650350521253</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>3180.650350521253</v>
+        <v>1646.382070876866</v>
       </c>
       <c r="V13" t="n">
-        <v>2898.938883129282</v>
+        <v>1364.670603484895</v>
       </c>
       <c r="W13" t="n">
-        <v>2624.086479301795</v>
+        <v>1089.818199657408</v>
       </c>
       <c r="X13" t="n">
-        <v>2381.5225827476</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="Y13" t="n">
-        <v>2155.179814437342</v>
+        <v>847.2543031032135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1781.919935813316</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1355.019205826616</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1355.019205826616</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>929.0422659744733</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638735</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332211</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332211</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.6821504967922</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.6821504967922</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722913</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.6679651621</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559904</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957707</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957707</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957707</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957707</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.10752483961</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.10752483961</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.10752483961</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.10752483961</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.618109965859</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2876.618109965859</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2464.898111133607</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2201.768300104846</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.6821504967922</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.6821504967922</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.6821504967922</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>64.6821504967922</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>865.1237628945958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>865.1237628945958</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2136.875619950719</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="C16" t="n">
-        <v>1964.903056829635</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="D16" t="n">
-        <v>1801.586283956406</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="E16" t="n">
-        <v>1635.378078109259</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>1463.51630388382</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>1297.259334178052</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>1153.463065686206</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.694497426482</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.18582565064</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856477</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150898</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121149</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997184</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676947</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598848</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.10752483961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3234.10752483961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>3234.10752483961</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>3234.10752483961</v>
+        <v>1904.954843556791</v>
       </c>
       <c r="U16" t="n">
-        <v>3234.10752483961</v>
+        <v>1624.770395057095</v>
       </c>
       <c r="V16" t="n">
-        <v>2952.396057447639</v>
+        <v>1343.058927665124</v>
       </c>
       <c r="W16" t="n">
-        <v>2677.543653620152</v>
+        <v>1343.058927665124</v>
       </c>
       <c r="X16" t="n">
-        <v>2434.979757065958</v>
+        <v>1100.495031110929</v>
       </c>
       <c r="Y16" t="n">
-        <v>2327.041588662784</v>
+        <v>874.1522628006712</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.4138558574795</v>
+        <v>517.8401132784821</v>
       </c>
       <c r="C19" t="n">
-        <v>675.4412927363954</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5683,40 +5685,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976529</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656292</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818955</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818955</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2063.050360653456</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1781.338893261485</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.486489433998</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.922592879803</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.579824569545</v>
+        <v>708.0060819905477</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,22 +5752,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
         <v>4997.579335409525</v>
@@ -5780,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>599.7631605785814</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>427.7905974574974</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>264.4738245842681</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>264.4738245842681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>264.4738245842681</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>264.4738245842681</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>5068.0970569786</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>4787.912608478905</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>4787.912608478905</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>4513.060204651418</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="23">
@@ -5990,13 +5992,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
         <v>3105.626261478504</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>913.7427045492574</v>
+        <v>771.3692302638447</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1832.396244838396</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1832.396244838396</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1557.543841010909</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X25" t="n">
-        <v>1314.979944456714</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y25" t="n">
-        <v>1088.637176146456</v>
+        <v>961.5351989759104</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>3746.273422917372</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>3574.300859796288</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>3410.984086923059</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1844.556469506584</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>1844.556469506584</v>
+        <v>4545.401190691025</v>
       </c>
       <c r="V28" t="n">
-        <v>1844.556469506584</v>
+        <v>4263.689723299054</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>3988.837319471567</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>3746.273422917372</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>3746.273422917372</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>896.9441885421152</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C31" t="n">
-        <v>724.9716254210311</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D31" t="n">
-        <v>561.6548525478019</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4466467006554</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F31" t="n">
-        <v>223.5848724752158</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U31" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="V31" t="n">
-        <v>1830.869225946121</v>
+        <v>4852.060234546818</v>
       </c>
       <c r="W31" t="n">
-        <v>1556.016822118634</v>
+        <v>4577.207830719331</v>
       </c>
       <c r="X31" t="n">
-        <v>1313.452925564439</v>
+        <v>4334.643934165136</v>
       </c>
       <c r="Y31" t="n">
-        <v>1087.110157254181</v>
+        <v>4108.301165854878</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6777,19 +6779,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3278.556980224822</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.584417103738</v>
+        <v>561.748845340166</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103738</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5017.717281294595</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4774.377933520494</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>4494.193485020799</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4212.482017628828</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>3937.629613801341</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>3695.065717247146</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.722948936888</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576525</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076929</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495987</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982688</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291428</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291428</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3845.931202281448</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281448</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408219</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561072</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335633</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629865</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138019</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058286</v>
+        <v>2934.722642878295</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102453</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.74157230829</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302446</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>2180.109617087993</v>
+        <v>4876.733783037568</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.925168588297</v>
+        <v>4596.549334537873</v>
       </c>
       <c r="V37" t="n">
-        <v>1618.213701196326</v>
+        <v>4314.837867145901</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.213701196326</v>
+        <v>4314.837867145901</v>
       </c>
       <c r="X37" t="n">
-        <v>1375.649804642131</v>
+        <v>4072.273970591706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>3845.931202281448</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,58 +7162,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576498</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076926</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495985</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133498</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710917</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793823</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M39" t="n">
-        <v>4568.970883343944</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>4568.970883343944</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.970883343944</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>4568.970883343944</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206723</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>617.9565661695589</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>617.9565661695589</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>451.7483603224124</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>279.8865860969728</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>279.8865860969728</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>136.0903176051272</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2099.621208542961</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1819.436760043265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.725292651294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.872888823807</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.308992269612</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1938.587330489471</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1511.686600502771</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1511.686600502771</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1085.709660650629</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>660.5854788400291</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679216</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3032064999884</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>351.3032064999884</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>1151.744818897791</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.186431295595</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453522</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2754.827044480654</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2754.827044480654</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2358.435694781001</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2358.435694781001</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2358.435694781001</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1992.543385290554</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>1875.037481808059</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>1771.197523323344</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>1666.495589596281</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>1572.849759279185</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>1478.795987496789</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>1425.419894259099</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>1432.866537221011</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>1432.866537221011</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>1432.866537221011</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>2233.308149618814</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>2233.308149618814</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N42" t="n">
-        <v>3033.749762016617</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O42" t="n">
-        <v>3234.107524839608</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P42" t="n">
-        <v>3234.107524839608</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q42" t="n">
-        <v>3234.107524839608</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>3234.107524839608</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>3152.783277400863</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>3010.903341698541</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>2826.135145618178</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>2621.162006757444</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>2424.640629590661</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>2261.163283357324</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>2121.470394710617</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2136.875619950717</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>1964.903056829633</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>1801.586283956404</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>1635.378078109257</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F43" t="n">
-        <v>1463.516303883818</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G43" t="n">
-        <v>1297.25933417805</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>1153.463065686204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>1337.713426856475</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>1692.402748150896</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>2461.080053997182</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>3234.107524839608</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>3187.068911526781</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>3016.933864045916</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2773.594516271816</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>2773.594516271816</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>2569.605485216977</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>2569.605485216977</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>2327.041588662782</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>2327.041588662782</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1550.673831802706</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1550.673831802706</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1127.381210987706</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>787.6747108333572</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227574</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679216</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945952</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.006987690201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.006987690201</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453522</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3129.740230712749</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2772.250815838998</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2375.859466139345</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2375.859466139345</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1970.522196094236</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>655.1670770651317</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>655.1670770651317</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>1455.608689462935</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.657131938123</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="C46" t="n">
-        <v>678.684568817039</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>515.3677959438097</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>515.3677959438097</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>343.5060217183701</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.582169342129</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1784.582169342129</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W46" t="n">
-        <v>1509.729765514641</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X46" t="n">
-        <v>1267.165868960447</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="Y46" t="n">
-        <v>1040.823100650189</v>
+        <v>1032.493025844841</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>519.5412919487788</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884156</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>39.6955125234177</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>506.2917778681991</v>
       </c>
       <c r="M3" t="n">
-        <v>91.00089423008578</v>
+        <v>330.8189978337095</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761917</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.0381883674135</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8301,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>455.6345869468032</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>378.5549082613589</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8532,28 +8534,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290792</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>378.5549082613589</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>326.6138366035045</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>143.6953511146599</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>381.5924700313612</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>427.5561602122188</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>781.2186148465713</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093343</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443486</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>143.6953511146599</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241321</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>318.1701737062709</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9167,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>578.3809836794701</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9647,7 +9649,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>394.7585026918616</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,7 +9886,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>883.9207714806259</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>517.6546514635598</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
-        <v>475.3690562152009</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>224.2932485068583</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K38" t="n">
-        <v>224.2932485068555</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10904,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M39" t="n">
-        <v>453.1210588457834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10917,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>327.8282606176697</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443481</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11136,22 +11138,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241317</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234437</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>225.5534683313045</v>
+        <v>384.9994066731654</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P44" t="n">
-        <v>233.9983140964142</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11382,10 +11384,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222301</v>
+        <v>153.2864345924293</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3239288341146</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>13.97349329154409</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5110944308854</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>103.3201492541433</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>140.7853844261854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>35.35636301287104</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.2205539080139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23902,7 +23904,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>59.91387765085446</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>142.9755238000612</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>80.57978831739882</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>162.2770323843604</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.11878214371802</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>168.8442712255046</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>169.2533476924151</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.5250625300168</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.451595516643</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>13.73636412510504</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.3258918027045</v>
+        <v>219.8900101007935</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>65.32115441982114</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>139.7889740113104</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>76.94521197376082</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>85.40773530081566</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>151.4609019843725</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>129.687955883402</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354248.1352023341</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354248.1352023343</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354248.1352023342</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354248.1352023341</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100469</v>
+        <v>524198.4012100471</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.4012100467</v>
+        <v>524198.401210047</v>
       </c>
       <c r="D2" t="n">
         <v>524198.4012100469</v>
       </c>
       <c r="E2" t="n">
-        <v>375086.2608024713</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="F2" t="n">
-        <v>375086.2608024714</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="G2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="I2" t="n">
         <v>505827.3628237025</v>
@@ -26338,7 +26340,7 @@
         <v>505827.3628237025</v>
       </c>
       <c r="K2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
         <v>505827.3628237025</v>
@@ -26347,13 +26349,13 @@
         <v>505827.3628237026</v>
       </c>
       <c r="N2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="O2" t="n">
-        <v>375086.2608024714</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="P2" t="n">
-        <v>375086.2608024714</v>
+        <v>505827.3628237023</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695917</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346221</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
-        <v>1.63265173702304e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802892</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.6003570194</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537392</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139507.7493322929</v>
+        <v>156089.0640777228</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26424,25 +26426,25 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215404</v>
+        <v>800.060259943367</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333214764</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433028</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433253</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433672</v>
@@ -26451,13 +26453,13 @@
         <v>800.0602599433673</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215405</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215406</v>
+        <v>800.0602599433674</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216135</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756207</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130839.6674255886</v>
+        <v>142943.4182405713</v>
       </c>
       <c r="C6" t="n">
-        <v>317244.4008403256</v>
+        <v>293837.5671667142</v>
       </c>
       <c r="D6" t="n">
         <v>317244.4008403259</v>
       </c>
       <c r="E6" t="n">
-        <v>250019.1411381254</v>
+        <v>211537.8838186891</v>
       </c>
       <c r="F6" t="n">
-        <v>325350.0922915877</v>
+        <v>427277.2403753294</v>
       </c>
       <c r="G6" t="n">
-        <v>298386.8405637892</v>
+        <v>427277.2403753296</v>
       </c>
       <c r="H6" t="n">
-        <v>427277.2403753296</v>
+        <v>427277.2403753294</v>
       </c>
       <c r="I6" t="n">
         <v>427277.2403753294</v>
       </c>
       <c r="J6" t="n">
-        <v>281743.5704405129</v>
+        <v>300699.9717950402</v>
       </c>
       <c r="K6" t="n">
-        <v>427277.2403753294</v>
+        <v>408630.6400183102</v>
       </c>
       <c r="L6" t="n">
         <v>427277.2403753294</v>
       </c>
       <c r="M6" t="n">
-        <v>364403.3034099556</v>
+        <v>247213.3689201619</v>
       </c>
       <c r="N6" t="n">
+        <v>427277.2403753294</v>
+      </c>
+      <c r="O6" t="n">
         <v>427277.2403753296</v>
       </c>
-      <c r="O6" t="n">
-        <v>325350.0922915878</v>
-      </c>
       <c r="P6" t="n">
-        <v>325350.0922915878</v>
+        <v>427277.2403753293</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099025</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629543</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629543</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>256.8618480060384</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>82.23069669041803</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>163.5293346535201</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>79.38900859341595</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.166099005634</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>198.7036757366576</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>76.94521197376022</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.4410284386358</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>196.1965332168822</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27904,19 +27906,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>240.8241420779642</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28017,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>87.3095085126813</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>81.71247581817107</v>
       </c>
     </row>
     <row r="11">
@@ -28755,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.343167360773602e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.304553167393599</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="M3" t="n">
-        <v>67.9041137177578</v>
+        <v>307.7222173213815</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709427012</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>432.5378064344752</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
+        <v>357.2118800478172</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>263.0232516395698</v>
-      </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>527.4536661148496</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>357.2118800478172</v>
-      </c>
-      <c r="O9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>290.8492358086951</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>106.3043917586358</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,7 +35491,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>742.9065724139484</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099025</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099025</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>106.3043917586358</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099025</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>294.9982839840487</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>540.8056218692387</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36051,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404383</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36367,7 +36369,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>357.4788798574156</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,7 +36606,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>846.4895085811942</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2233885641281</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>188.5286477120489</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37469,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115399</v>
       </c>
       <c r="M37" t="n">
         <v>395.137166636617</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K38" t="n">
-        <v>188.5286477120462</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M39" t="n">
-        <v>430.0242783334554</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>289.5162181850467</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099021</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37856,22 +37858,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099021</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>202.3815786090822</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P44" t="n">
-        <v>196.4229522861829</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38102,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099021</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="N45" t="n">
-        <v>421.9809006205729</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2811049.71965612</v>
+        <v>2810353.05845103</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114749</v>
+        <v>612367.9462114752</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.7880326425764</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>244.6165724260356</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>128.9342698104344</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>113.8532693611787</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>188.465592173</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>68.60526130391781</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>65.41309383316693</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>159.7080630013533</v>
       </c>
       <c r="C8" t="n">
-        <v>226.4351894699507</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.3668648089843</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>98.15366458399673</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>174.0624547605554</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1767,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10.30445754231271</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>205.549591283488</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.10381682709421</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407058</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.2643090249408</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>61.77851748952833</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>1.408566264368526</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>108.1292563222837</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2970,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.44275720140839</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>147.947241019392</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>167.8164790129223</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>21.01594419556553</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.44972815730565</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>96.44420510686395</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>18.79193550550065</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180485</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8988997477844</v>
+        <v>348.36077091398</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014886</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>414.786357026893</v>
+        <v>82.02110724439885</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151546</v>
+        <v>60.08457143266045</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449589</v>
+        <v>39.00079366246475</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748115</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884635</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092131</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516429</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516429</v>
+        <v>859.6725812491129</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516429</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.183442594073</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229793</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229793</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733976</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="V2" t="n">
-        <v>1830.739470489018</v>
+        <v>1577.617349742122</v>
       </c>
       <c r="W2" t="n">
-        <v>1434.348120789365</v>
+        <v>1181.226000042469</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.628121957113</v>
+        <v>1173.54640525062</v>
       </c>
       <c r="Y2" t="n">
-        <v>617.2908519120029</v>
+        <v>768.2091352055101</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668235</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843282</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996132</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725504</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554546</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730586</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353682</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353682</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>126.4191340353682</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K3" t="n">
-        <v>126.4191340353682</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="L3" t="n">
-        <v>605.358058277798</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="M3" t="n">
-        <v>910.0030534259657</v>
+        <v>517.6410595347458</v>
       </c>
       <c r="N3" t="n">
-        <v>910.0030534259657</v>
+        <v>996.5799837771741</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.941977668396</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.941977668396</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531175</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615878</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177133</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474811</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394447</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533714</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366931</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335938</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868862</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954704</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="D4" t="n">
-        <v>786.5939218222411</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750946</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496551</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438872</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647559</v>
+        <v>96.19346351647546</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223128</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167336</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
         <v>1068.596180986984</v>
@@ -4503,37 +4503,37 @@
         <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375116</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615878</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615878</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1935.106764615878</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1820.103462230849</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="V4" t="n">
-        <v>1538.391994838878</v>
+        <v>912.6978401564133</v>
       </c>
       <c r="W4" t="n">
-        <v>1538.391994838878</v>
+        <v>637.8454363289263</v>
       </c>
       <c r="X4" t="n">
-        <v>1538.391994838878</v>
+        <v>395.2815397747314</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>168.9387714644734</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8670150191532</v>
+        <v>737.2997642306473</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728574</v>
+        <v>714.4394382843515</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>695.1872215097558</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
         <v>79.69375467592363</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2155.613008721045</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1798.123593847295</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1401.732244147642</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>990.0122453153889</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y5" t="n">
-        <v>584.6749752702792</v>
+        <v>1157.148128522177</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1049.956911236353</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>877.9843481152689</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>714.6675752420396</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>548.4593693948931</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>376.5975951694535</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>210.3406254636856</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502613</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1482.686776502613</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1240.122879948419</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1240.122879948419</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>774.7291026788682</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728574</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>122.7140682578577</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.594331807357</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1195.874332975104</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.577466970398</v>
+        <v>291.2510154811631</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>838.3748437825398</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P9" t="n">
         <v>1389.040378766978</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>783.8450102269608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8450102269608</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>783.8450102269608</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5041,34 +5041,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
         <v>4789.842805209199</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N12" t="n">
-        <v>964.4851292537592</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O12" t="n">
-        <v>1364.825557038856</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.2543031032135</v>
+        <v>373.4203922683234</v>
       </c>
       <c r="C13" t="n">
-        <v>847.2543031032135</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9375302299842</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="E13" t="n">
-        <v>517.7293243828377</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5217,34 +5217,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338096</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563996</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.382070876866</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V13" t="n">
-        <v>1364.670603484895</v>
+        <v>1307.345429672329</v>
       </c>
       <c r="W13" t="n">
-        <v>1089.818199657408</v>
+        <v>1032.493025844842</v>
       </c>
       <c r="X13" t="n">
-        <v>847.2543031032135</v>
+        <v>789.929129290647</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.2543031032135</v>
+        <v>563.586360980389</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
         <v>5010.768376164567</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1191.617659878699</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>683.9862940886056</v>
+        <v>786.1193363033824</v>
       </c>
       <c r="C16" t="n">
-        <v>683.9862940886056</v>
+        <v>614.1467731822984</v>
       </c>
       <c r="D16" t="n">
-        <v>683.9862940886056</v>
+        <v>450.8300003090691</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886056</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T16" t="n">
-        <v>1904.954843556791</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U16" t="n">
-        <v>1624.770395057095</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V16" t="n">
-        <v>1343.058927665124</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.058927665124</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.495031110929</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.1522628006712</v>
+        <v>976.2853050154481</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.8401132784821</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C19" t="n">
-        <v>345.8675501573982</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D19" t="n">
-        <v>345.8675501573982</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.0060819905477</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5782,7 +5782,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.7631605785814</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>427.7905974574974</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>264.4738245842681</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>264.4738245842681</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>264.4738245842681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>264.4738245842681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.9291292906429</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.3692302638447</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.441863840363</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.877967286168</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.5351989759104</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3746.273422917372</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3574.300859796288</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3410.984086923059</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3244.775881075912</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4545.401190691025</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4263.689723299054</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3988.837319471567</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3746.273422917372</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3746.273422917372</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3918.135197142812</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>3746.162634021728</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>3582.845861148498</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>3416.637655301352</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>3244.775881075912</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4897.962009497735</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U31" t="n">
-        <v>4897.962009497735</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V31" t="n">
-        <v>4852.060234546818</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W31" t="n">
-        <v>4577.207830719331</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>4334.643934165136</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>4108.301165854878</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.72140846125</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>561.748845340166</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281448</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281448</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408219</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561072</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335633</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629865</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138019</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878295</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102453</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.74157230829</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4876.733783037568</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>4596.549334537873</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>4314.837867145901</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>4314.837867145901</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>4072.273970591706</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281448</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>1194.79262694784</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.9291292906429</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>617.9565661695589</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>617.9565661695589</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>451.7483603224124</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>279.8865860969728</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>279.8865860969728</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0903176051272</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>789.9291292906429</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7420,16 +7420,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7450,13 +7450,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>381.4468456473314</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>381.4468456473314</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.761792120201</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5554397491844</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>371.5828766281004</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>371.5828766281004</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>371.5828766281004</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>199.7211024026608</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.628073325703</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>960.064176771508</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7663,13 +7663,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7724,19 +7724,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1032.493025844841</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7842,16 +7842,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672328</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.493025844841</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1032.493025844841</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1032.493025844841</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487788</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>501.3089991395926</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533998</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884156</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>39.6955125234177</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681991</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>330.8189978337095</v>
+        <v>506.873471666296</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675097</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761917</v>
+        <v>506.9485808761902</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>397.3979703495002</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>222.9232893478703</v>
       </c>
       <c r="P4" t="n">
-        <v>29.0381883674135</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8300,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870438</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>378.5549082613589</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8473,10 +8473,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>549.9687528290792</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,7 +8549,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>259.9167409896189</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8704,16 +8704,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>427.5561602122188</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>740.8880544833419</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>578.3809836794701</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>273.3801787779327</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>178.8479383043439</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>394.7585026918616</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9728,7 +9728,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>775.4951334534195</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>529.5908311320803</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11141,19 +11141,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>384.9994066731654</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>153.2864345924293</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.6172179931300548</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>103.3201492541433</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>154.2416662463623</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>35.35636301287104</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.9755238000612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>80.57978831739882</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.8442712255046</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>169.2533476924151</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>233.451595516643</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>13.73636412510504</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>219.8900101007935</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>65.32115441982114</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.15019490184623</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>151.4609019843725</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668303</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>477725.8426668301</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.401210047</v>
       </c>
       <c r="C2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="D2" t="n">
-        <v>524198.4012100469</v>
+        <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="F2" t="n">
         <v>505827.3628237027</v>
-      </c>
-      <c r="F2" t="n">
-        <v>505827.3628237025</v>
       </c>
       <c r="G2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="H2" t="n">
+        <v>505827.3628237028</v>
+      </c>
+      <c r="I2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="J2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="K2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="M2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="O2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="K2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>505827.3628237025</v>
-      </c>
-      <c r="M2" t="n">
-        <v>505827.3628237026</v>
-      </c>
-      <c r="N2" t="n">
-        <v>505827.3628237025</v>
-      </c>
-      <c r="O2" t="n">
-        <v>505827.3628237027</v>
-      </c>
-      <c r="P2" t="n">
-        <v>505827.3628237023</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695917</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361173</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802892</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.6003570194</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156089.0640777228</v>
+        <v>156089.0640777231</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26426,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="F4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="G4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="L4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="M4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="N4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="O4" t="n">
         <v>800.0602599433673</v>
       </c>
-      <c r="L4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="M4" t="n">
-        <v>800.0602599433673</v>
-      </c>
-      <c r="N4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="O4" t="n">
-        <v>800.0602599433672</v>
-      </c>
       <c r="P4" t="n">
-        <v>800.0602599433674</v>
+        <v>800.0602599433671</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216135</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,7 +26502,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142943.4182405713</v>
+        <v>142943.4182405714</v>
       </c>
       <c r="C6" t="n">
-        <v>293837.5671667142</v>
+        <v>293837.5671667136</v>
       </c>
       <c r="D6" t="n">
         <v>317244.4008403259</v>
       </c>
       <c r="E6" t="n">
-        <v>211537.8838186891</v>
+        <v>211486.8531565047</v>
       </c>
       <c r="F6" t="n">
-        <v>427277.2403753294</v>
+        <v>427226.2097131454</v>
       </c>
       <c r="G6" t="n">
-        <v>427277.2403753296</v>
+        <v>427226.2097131453</v>
       </c>
       <c r="H6" t="n">
-        <v>427277.2403753294</v>
+        <v>427226.2097131455</v>
       </c>
       <c r="I6" t="n">
-        <v>427277.2403753294</v>
+        <v>427226.2097131453</v>
       </c>
       <c r="J6" t="n">
-        <v>300699.9717950402</v>
+        <v>300648.9411328565</v>
       </c>
       <c r="K6" t="n">
-        <v>408630.6400183102</v>
+        <v>408579.6093561253</v>
       </c>
       <c r="L6" t="n">
-        <v>427277.2403753294</v>
+        <v>427226.2097131453</v>
       </c>
       <c r="M6" t="n">
-        <v>247213.3689201619</v>
+        <v>247162.3382579775</v>
       </c>
       <c r="N6" t="n">
-        <v>427277.2403753294</v>
+        <v>427226.2097131452</v>
       </c>
       <c r="O6" t="n">
-        <v>427277.2403753296</v>
+        <v>427226.2097131452</v>
       </c>
       <c r="P6" t="n">
-        <v>427277.2403753293</v>
+        <v>427226.2097131452</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256.8618480060384</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>178.0151502607972</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,13 +27438,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.33003921451058</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>163.5293346535201</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>233.251578280621</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,10 +27672,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>187.166099005634</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>76.94521197376022</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>255.9418176472615</v>
       </c>
       <c r="C8" t="n">
-        <v>196.1965332168822</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.71247581817107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.155449954899178e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>462.9969567069696</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539695</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O2" t="n">
-        <v>2.304553167393599</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>307.7222173213815</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539695</v>
+        <v>483.776691153968</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>375.6271291446715</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>200.4241018494459</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709427012</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>357.2118800478172</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35424,16 +35424,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968738</v>
       </c>
       <c r="Q13" t="n">
         <v>128.2829598391535</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793778</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35889,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>540.8056218692387</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>250.2833982656047</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>156.3328515901144</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>357.4788798574156</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115399</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
         <v>395.137166636617</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>507.0757444178507</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37861,19 +37861,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>361.8275169509432</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>130.1896540801013</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
